--- a/MovieTicket.xlsx
+++ b/MovieTicket.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projectsem2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projectsem2\projectsem2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA9C5CA3-E697-48B4-AC56-6B41A63BDD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B0DA0-6FEC-40F7-AF28-3343E3C355F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49DD4C09-74A7-45FF-A6A8-7F0F3730D5EF}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{49DD4C09-74A7-45FF-A6A8-7F0F3730D5EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Doanh thu bán được trong ngày,tuần ,tháng, năm</t>
+  </si>
+  <si>
+    <t>Đặt vé online(Có thể sửa: đặt thêm vé + đặt vé mới)</t>
   </si>
 </sst>
 </file>
@@ -219,21 +222,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956C1E12-1D28-4BFF-89F6-CD2EEAA42289}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,21 +565,21 @@
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="64.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -590,7 +593,7 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -604,7 +607,7 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -619,9 +622,9 @@
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -667,9 +670,9 @@
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -686,6 +689,9 @@
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -696,12 +702,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">

--- a/MovieTicket.xlsx
+++ b/MovieTicket.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projectsem2\projectsem2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\MovieTicket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B0DA0-6FEC-40F7-AF28-3343E3C355F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{49DD4C09-74A7-45FF-A6A8-7F0F3730D5EF}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -154,12 +153,15 @@
   </si>
   <si>
     <t>Đặt vé online(Có thể sửa: đặt thêm vé + đặt vé mới)</t>
+  </si>
+  <si>
+    <t>Có đủ các chức năng của nhân viên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -239,10 +241,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Tốt" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956C1E12-1D28-4BFF-89F6-CD2EEAA42289}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,37 +639,39 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
